--- a/EN 50581/RoverBase.xlsx
+++ b/EN 50581/RoverBase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="127">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -203,10 +203,25 @@
     <t xml:space="preserve">https://optoelectronics.liteon.com/en-global/Page/RoHS</t>
   </si>
   <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourns Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF-RG800-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118-MF-RG800-2CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bourns.com/docs/Product-Datasheets/mfrg.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">J3</t>
   </si>
   <si>
-    <t xml:space="preserve">Würth Elektronik</t>
+    <t xml:space="preserve">Wurth Elektronik</t>
   </si>
   <si>
     <t xml:space="preserve">732-5317-ND</t>
@@ -248,7 +263,22 @@
     <t xml:space="preserve">https://www.vishay.com/product?docid=34316&amp;tab=quality</t>
   </si>
   <si>
-    <t xml:space="preserve">R3 R12 R13 R14</t>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay Siliconix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQM40081EL_GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQM40081EL_GE3CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vishay.com/product?docid=79583&amp;tab=quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 R12 R13 R14</t>
   </si>
   <si>
     <t xml:space="preserve">CRCW04021K00FKEDHP</t>
@@ -260,7 +290,7 @@
     <t xml:space="preserve">https://www.vishay.com/product?docid=20043&amp;tab=quality</t>
   </si>
   <si>
-    <t xml:space="preserve">R1 R2 R4 R6 R9 R11</t>
+    <t xml:space="preserve">R6 R9 R11</t>
   </si>
   <si>
     <t xml:space="preserve">CRCW040210K0FKED</t>
@@ -360,21 +390,6 @@
   </si>
   <si>
     <t xml:space="preserve">296-39474-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STMicroelectronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VN5E160MSTR-E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">497-11685-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.st.com/content/st_com/en/about/quality-and-reliability/product-environmental-compliance.html</t>
   </si>
   <si>
     <t xml:space="preserve">2011/65/EU</t>
@@ -527,10 +542,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -944,17 +959,17 @@
       <c r="D12" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>61300411121</v>
+      <c r="E12" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>-40</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>15</v>
@@ -963,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,19 +989,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>61300411121</v>
+      </c>
       <c r="F13" s="0" t="n">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>67</v>
@@ -995,10 +1010,10 @@
         <v>15</v>
       </c>
       <c r="J13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,31 +1021,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="n">
+        <v>-25</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>-55</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="H14" s="0" t="s">
+      <c r="I14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>74</v>
@@ -1041,34 +1056,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>-55</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,34 +1091,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>-55</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,16 +1126,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>-55</v>
@@ -1129,16 +1144,16 @@
         <v>155</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,16 +1161,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>-55</v>
@@ -1164,16 +1179,16 @@
         <v>155</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,13 +1199,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>-55</v>
@@ -1199,16 +1214,16 @@
         <v>155</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,34 +1231,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>-55</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>-30</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,31 +1269,31 @@
         <v>1</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-40</v>
+        <v>-55</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,7 +1301,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>102</v>
@@ -1298,10 +1313,10 @@
         <v>104</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>105</v>
@@ -1321,25 +1336,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>-40</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>15</v>
@@ -1347,8 +1362,8 @@
       <c r="J23" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>106</v>
+      <c r="K23" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,25 +1371,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>-40</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>15</v>
@@ -1383,7 +1398,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,34 +1406,69 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>-40</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H25" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>117</v>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1442,8 +1492,8 @@
   </sheetPr>
   <dimension ref="A2:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="J25 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="J17 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1453,16 +1503,16 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1470,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
